--- a/spreadsheet/macrofree/appservicewebapps_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/appservicewebapps_sg_checklist.es.xlsx
@@ -1095,12 +1095,12 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>(Plan de App Service) Habilite la redundancia de zona. Considere la posibilidad de aprovisionar más de tres instancias para mejorar la tolerancia a errores.  Compruebe la compatibilidad regional con la redundancia de zona, ya que no todas las regiones ofrecen esta función.</t>
+          <t>(Plan de App Service) Habilite la redundancia de zona. Considere la posibilidad de aprovisionar más de tres instancias para mejorar la tolerancia a errores.  Compruebe la compatibilidad regional con la redundancia de zona, ya que no todas las regiones ofrecen esta característica.</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>La aplicación puede soportar errores en una sola zona cuando hay varias instancias distribuidas entre zonas. El tráfico cambia automáticamente a instancias en buen estado en otras zonas y mantiene la confiabilidad de la aplicación si una zona no está disponible.</t>
+          <t>La aplicación puede soportar errores en una sola zona cuando varias instancias se distribuyen entre zonas. El tráfico cambia automáticamente a instancias en buen estado en otras zonas y mantiene la confiabilidad de la aplicación si una zona no está disponible.</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1129,12 +1129,12 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>(Servicio de aplicaciones) Considere la posibilidad de deshabilitar la característica de afinidad de enrutamiento de solicitudes de aplicación (ARR). La afinidad de ARR crea sesiones permanentes que redirigen a los usuarios al nodo que manejó sus solicitudes anteriores.</t>
+          <t>(Servicio de aplicaciones) Considere la posibilidad de deshabilitar la característica de afinidad de enrutamiento de solicitudes de aplicación (ARR). La afinidad ARR crea sesiones permanentes que redirigen a los usuarios al nodo que manejó sus solicitudes anteriores.</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Las solicitudes entrantes se distribuyen uniformemente entre todos los nodos disponibles cuando se deshabilita la afinidad de ARR. Las solicitudes distribuidas uniformemente evitan que el tráfico abrume a un solo nodo. Las solicitudes se pueden redirigir sin problemas a otros nodos en buen estado si un nodo no está disponible.  Evite la afinidad de sesión para asegurarse de que la instancia de App Service permanezca sin estado. Un Servicio de aplicaciones sin estado reduce la complejidad y garantiza un comportamiento coherente en todos los nodos.  Quite las sesiones permanentes para que App Service pueda agregar o quitar instancias para escalar horizontalmente.</t>
+          <t>Las solicitudes entrantes se distribuyen uniformemente entre todos los nodos disponibles cuando se deshabilita la afinidad ARR. Las solicitudes distribuidas uniformemente evitan que el tráfico abrume a un solo nodo. Las solicitudes se pueden redirigir sin problemas a otros nodos en buen estado si un nodo no está disponible.  Evite la afinidad de sesión para asegurarse de que la instancia de App Service permanezca sin estado. Un servicio de aplicaciones sin estado reduce la complejidad y garantiza un comportamiento coherente en todos los nodos.  Quite las sesiones permanentes para que App Service pueda agregar o quitar instancias para escalar horizontalmente.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>(Servicio de aplicaciones) Habilite la característica de comprobación de estado y proporcione una ruta que responda a las solicitudes de comprobación de estado.</t>
+          <t>(Servicio de aplicaciones) Habilite la característica de comprobación de estado y proporcione una ruta de acceso que responda a las solicitudes de comprobación de estado.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Las comprobaciones de estado pueden detectar problemas de forma temprana. A continuación, el sistema puede tomar automáticamente medidas correctivas cuando se produce un error en una solicitud de comprobación de estado.  El equilibrador de carga aleja el tráfico de las instancias en mal estado, lo que dirige a los usuarios a los nodos en buen estado.</t>
+          <t>Las comprobaciones de estado pueden detectar problemas de forma temprana. A continuación, el sistema puede tomar automáticamente medidas correctivas cuando se produce un error en una solicitud de comprobación de estado.  El equilibrador de carga enruta el tráfico lejos de las instancias en mal estado, lo que dirige a los usuarios a los nodos en buen estado.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Al usar esta característica, no tiene que usar bibliotecas de autenticación en el código de la aplicación, lo que reduce la complejidad. El usuario ya está autenticado cuando una solicitud llega a la aplicación.</t>
+          <t>Al usar esta característica, no es necesario usar bibliotecas de autenticación en el código de la aplicación, lo que reduce la complejidad. El usuario ya está autenticado cuando una solicitud llega a la aplicación.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Obtenga las ventajas de seguridad de usar una red virtual de Azure. Por ejemplo, la aplicación puede acceder de forma segura a los recursos dentro de la red.   Agregue un punto de conexión privado para ayudar a proteger la aplicación. Los puntos de conexión privados limitan la exposición directa a la red pública y permiten el acceso controlado a través del proxy inverso.</t>
+          <t>Obtenga las ventajas de seguridad del uso de una red virtual de Azure. Por ejemplo, la aplicación puede acceder de forma segura a los recursos dentro de la red.   Agregue un punto de conexión privado para ayudar a proteger la aplicación. Los puntos de conexión privados limitan la exposición directa a la red pública y permiten el acceso controlado a través del proxy inverso.</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>Los secretos se mantienen independientes de la configuración de la aplicación. La configuración de la aplicación se cifra en reposo. App Service también administra las rotaciones secretas.</t>
+          <t>Los secretos se mantienen separados de la configuración de la aplicación. La configuración de la aplicación se cifra en reposo. App Service también administra las rotaciones secretas.</t>
         </is>
       </c>
       <c r="E18" s="21" t="n"/>
@@ -1469,12 +1469,12 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>(Plan de App Service) Habilite el registro de diagnóstico y agregue instrumentación a la aplicación. Los registros se envían a cuentas de Azure Storage, Azure Event Hubs y Log Analytics. Para obtener más información sobre los tipos de registro de auditoría, consulte Tipos de registro admitidos.</t>
+          <t>(Plan de App Service) Habilite el registro de diagnóstico y agregue instrumentación a su aplicación. Los registros se envían a cuentas de Azure Storage, Azure Event Hubs y Log Analytics. Para obtener más información sobre los tipos de registro de auditoría, consulte Tipos de registro compatibles.</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>El registro captura patrones de acceso. Registra eventos relevantes que proporcionan información valiosa sobre cómo los usuarios interactúan con una aplicación o plataforma. Esta información es crucial para fines de responsabilidad, cumplimiento y seguridad.</t>
+          <t>El registro captura patrones de acceso. Registra eventos relevantes que proporcionan información valiosa sobre cómo interactúan los usuarios con una aplicación o plataforma. Esta información es crucial para fines de responsabilidad, cumplimiento y seguridad.</t>
         </is>
       </c>
       <c r="E20" s="21" t="n"/>
@@ -1605,7 +1605,7 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>(Plan de App Service) Amplíe cuando la demanda disminuya. Para reducir horizontalmente, defina reglas de escalado para reducir el número de instancias en Azure Monitor.</t>
+          <t>(Plan de App Service) Escale horizontalmente cuando la demanda disminuya. Para reducir horizontalmente, defina reglas de escalado para reducir el número de instancias en Azure Monitor.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>Puede detectar problemas rápidamente y tomar las medidas necesarias para mantener la disponibilidad y el rendimiento.</t>
+          <t>Puede detectar problemas con prontitud y tomar las medidas necesarias para mantener la disponibilidad y el rendimiento.</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Los registros de diagnóstico proporcionan información valiosa sobre el comportamiento de la aplicación. Supervise los patrones de tráfico e identifique anomalías.</t>
+          <t>Los registros de diagnóstico proporcionan información valiosa sobre el comportamiento de tu app. Supervise los patrones de tráfico e identifique anomalías.</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1773,7 +1773,7 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Habilite la opción Siempre activo cuando las aplicaciones compartan un único plan de App Service. Las aplicaciones de App Service se descargan automáticamente cuando están inactivas para ahorrar recursos. La siguiente solicitud desencadena un inicio en frío, lo que puede provocar tiempos de espera de solicitud.</t>
+          <t>Habilite la opción AlwaysOn cuando las aplicaciones compartan un único plan de App Service. Las aplicaciones de App Service se descargan automáticamente cuando están inactivas para ahorrar recursos. La siguiente solicitud desencadena un inicio en frío, lo que puede provocar tiempos de espera de solicitud.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
@@ -1806,7 +1806,7 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar HTTP/2 para que las aplicaciones mejoren la eficiencia del protocolo.</t>
+          <t>Considere la posibilidad de utilizar HTTP/2 para que las aplicaciones mejoren la eficiencia del protocolo.</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este control aún no se ha examinado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">

--- a/spreadsheet/macrofree/appservicewebapps_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/appservicewebapps_sg_checklist.es.xlsx
@@ -1743,11 +1743,7 @@
           <t>(Plan de App Service) Valide los cambios de la aplicación en la ranura de ensayo antes de intercambiarla por la ranura de producción.</t>
         </is>
       </c>
-      <c r="D28" s="21" t="inlineStr">
-        <is>
-          <t>Evite el tiempo de inactividad y los errores.  Vuelva rápidamente al último estado bueno conocido si detecta un problema después de un intercambio.</t>
-        </is>
-      </c>
+      <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="n"/>
       <c r="F28" t="inlineStr">
         <is>

--- a/spreadsheet/macrofree/appservicewebapps_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/appservicewebapps_sg_checklist.es.xlsx
@@ -1061,7 +1061,7 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>(Plan de App Service) Elija el nivel Premium de un plan de App Service para cargas de trabajo de producción.  Establezca el número máximo y mínimo de trabajadores de acuerdo con su planificación de capacidad. Para obtener más información, consulte Introducción al plan de App Service.</t>
+          <t>(Plan de App Service) Elija el nivel Premium de un plan de App Service para las cargas de trabajo de producción.  Establezca el número máximo y mínimo de trabajadores de acuerdo con su planificación de capacidad. Para obtener más información, consulte Información general sobre el plan de App Service.</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>La aplicación puede soportar errores en una sola zona cuando varias instancias se distribuyen entre zonas. El tráfico cambia automáticamente a instancias en buen estado en otras zonas y mantiene la confiabilidad de la aplicación si una zona no está disponible.</t>
+          <t>La aplicación puede resistir errores en una sola zona cuando hay varias instancias distribuidas entre zonas. El tráfico cambia automáticamente a instancias en buen estado en otras zonas y mantiene la confiabilidad de la aplicación si una zona no está disponible.</t>
         </is>
       </c>
       <c r="E9" s="21" t="n"/>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Las solicitudes entrantes se distribuyen uniformemente entre todos los nodos disponibles cuando se deshabilita la afinidad ARR. Las solicitudes distribuidas uniformemente evitan que el tráfico abrume a un solo nodo. Las solicitudes se pueden redirigir sin problemas a otros nodos en buen estado si un nodo no está disponible.  Evite la afinidad de sesión para asegurarse de que la instancia de App Service permanezca sin estado. Un servicio de aplicaciones sin estado reduce la complejidad y garantiza un comportamiento coherente en todos los nodos.  Quite las sesiones permanentes para que App Service pueda agregar o quitar instancias para escalar horizontalmente.</t>
+          <t>Las solicitudes entrantes se distribuyen uniformemente entre todos los nodos disponibles cuando se deshabilita la afinidad de ARR. Las solicitudes distribuidas uniformemente evitan que el tráfico sature cualquier nodo individual. Las solicitudes se pueden redirigir sin problemas a otros nodos en buen estado si un nodo no está disponible.  Evite la afinidad de sesión para asegurarse de que la instancia de App Service permanezca sin estado. Un servicio de aplicaciones sin estado reduce la complejidad y garantiza un comportamiento coherente en todos los nodos.  Quite las sesiones permanentes para que App Service pueda agregar o quitar instancias para escalar horizontalmente.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1163,7 +1163,7 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>(Servicio de aplicaciones) Defina reglas de recuperación automática en función del recuento de solicitudes, las solicitudes lentas, los límites de memoria y otros indicadores que forman parte de la línea base de rendimiento. Considere esta configuración como parte de su estrategia de escalado.</t>
+          <t>(Servicio de aplicaciones) Defina reglas de reparación automática en función del recuento de solicitudes, las solicitudes lentas, los límites de memoria y otros indicadores que forman parte de la línea base de rendimiento. Tenga en cuenta esta configuración como parte de su estrategia de escalado.</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Las comprobaciones de estado pueden detectar problemas de forma temprana. A continuación, el sistema puede tomar automáticamente medidas correctivas cuando se produce un error en una solicitud de comprobación de estado.  El equilibrador de carga enruta el tráfico lejos de las instancias en mal estado, lo que dirige a los usuarios a los nodos en buen estado.</t>
+          <t>Las comprobaciones de estado pueden detectar problemas de forma temprana. A continuación, el sistema puede tomar medidas correctivas automáticamente cuando se produce un error en una solicitud de comprobación de estado.  El equilibrador de carga enruta el tráfico lejos de las instancias en mal estado, lo que dirige a los usuarios a los nodos en buen estado.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1299,12 +1299,12 @@
       <c r="B15" s="21" t="n"/>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>(App Service) evalúe si la autenticación integrada de App Service es el mecanismo adecuado para autenticar a los usuarios que acceden a la aplicación. La autenticación integrada de App Service se integra con el identificador de Microsoft Entra. Esta característica controla la validación de tokens y la administración de identidades de usuario en varios proveedores de inicio de sesión y es compatible con OpenID Connect. Con esta característica, no tiene autorización a nivel granular y no tiene un mecanismo para probar la autenticación.</t>
+          <t>(App Service) evalúe si la autenticación integrada de App Service es el mecanismo adecuado para autenticar a los usuarios que acceden a la aplicación. La autenticación integrada de App Service se integra con el identificador de Microsoft Entra. Esta función controla la validación de tokens y la administración de identidades de usuario en varios proveedores de inicio de sesión y es compatible con OpenID Connect. Con esta característica, no tiene autorización a nivel granular y no tiene un mecanismo para probar la autenticación.</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Al usar esta característica, no es necesario usar bibliotecas de autenticación en el código de la aplicación, lo que reduce la complejidad. El usuario ya está autenticado cuando una solicitud llega a la aplicación.</t>
+          <t>Al usar esta característica, no tiene que usar bibliotecas de autenticación en el código de la aplicación, lo que reduce la complejidad. El usuario ya está autenticado cuando una solicitud llega a la aplicación.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1469,7 +1469,7 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>(Plan de App Service) Habilite el registro de diagnóstico y agregue instrumentación a su aplicación. Los registros se envían a cuentas de Azure Storage, Azure Event Hubs y Log Analytics. Para obtener más información sobre los tipos de registro de auditoría, consulte Tipos de registro compatibles.</t>
+          <t>(Plan de App Service) Habilite el registro de diagnóstico y agregue instrumentación a la aplicación. Los registros se envían a las cuentas de Azure Storage, Azure Event Hubs y Log Analytics. Para obtener más información sobre los tipos de registro de auditoría, consulte Tipos de registro compatibles.</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
@@ -1673,7 +1673,7 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>(Servicio de aplicaciones) Habilite los registros de diagnóstico para la aplicación y la instancia.  El registro frecuente puede ralentizar el rendimiento del sistema, aumentar los costos de almacenamiento e introducir riesgos si tiene acceso no seguro a los registros. Siga estas prácticas recomendadas: - Registre el nivel correcto de información.  - Establecer políticas de retención.  - Mantenga un registro de auditoría de los accesos autorizados y los intentos no autorizados. - Tratar los registros como datos y aplicar controles de protección de datos.</t>
+          <t>(Servicio de aplicaciones) Habilite los registros de diagnóstico para la aplicación y la instancia.  El registro frecuente puede ralentizar el rendimiento del sistema, aumentar los costos de almacenamiento e introducir riesgos si tiene acceso no seguro a los registros. Siga estas prácticas recomendadas: - Registre el nivel correcto de información.  - Establecer políticas de retención.  - Mantener un registro de auditoría del acceso autorizado y los intentos no autorizados. - Tratar los registros como datos y aplicar controles de protección de datos.</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>App Service controla automáticamente procesos como la adquisición de certificados, la verificación de certificados, la renovación de certificados y la importación de certificados de Key Vault. Como alternativa, cargue el certificado en Key Vault y autorice al proveedor de recursos de App Service a acceder a él.</t>
+          <t>App Service controla automáticamente procesos como la adquisición de certificados, la verificación de certificados, la renovación de certificados y la importación de certificados desde Key Vault. Como alternativa, cargue el certificado en Key Vault y autorice al proveedor de recursos de App Service a acceder a él.</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1743,7 +1743,11 @@
           <t>(Plan de App Service) Valide los cambios de la aplicación en la ranura de ensayo antes de intercambiarla por la ranura de producción.</t>
         </is>
       </c>
-      <c r="D28" s="21" t="n"/>
+      <c r="D28" s="21" t="inlineStr">
+        <is>
+          <t>Evite el tiempo de inactividad y los errores.  Vuelva rápidamente al último estado bueno conocido si detecta un problema después de un intercambio.</t>
+        </is>
+      </c>
       <c r="E28" s="21" t="n"/>
       <c r="F28" t="inlineStr">
         <is>
@@ -1769,7 +1773,7 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Habilite la opción AlwaysOn cuando las aplicaciones compartan un único plan de App Service. Las aplicaciones de App Service se descargan automáticamente cuando están inactivas para ahorrar recursos. La siguiente solicitud desencadena un inicio en frío, lo que puede provocar tiempos de espera de solicitud.</t>
+          <t>Habilite la opción Siempre activo cuando las aplicaciones compartan un único plan de App Service. Las aplicaciones de App Service se descargan automáticamente cuando están inactivas para ahorrar recursos. La siguiente solicitud desencadena un inicio en frío, lo que puede provocar tiempos de espera de solicitud.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
@@ -1802,7 +1806,7 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar HTTP/2 para que las aplicaciones mejoren la eficiencia del protocolo.</t>
+          <t>Considere la posibilidad de usar HTTP/2 para que las aplicaciones mejoren la eficiencia del protocolo.</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
